--- a/doc/Team SCHEDULE Form.xlsx
+++ b/doc/Team SCHEDULE Form.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Team SCHEDULE Form</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>Launch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -167,7 +171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -196,6 +200,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -507,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -527,68 +534,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="B7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
       <c r="H7" t="s">
         <v>3</v>
       </c>
@@ -602,18 +609,18 @@
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
       <c r="H9" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="12"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="3"/>
     </row>
     <row r="11" spans="1:16">
@@ -625,12 +632,12 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="3"/>
@@ -638,17 +645,17 @@
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:16" ht="27.75" customHeight="1">
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -690,17 +697,19 @@
       <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="10">
+        <v>41361</v>
+      </c>
       <c r="C18" s="8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D18" s="8">
         <f>C18</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E18" s="9">
-        <f>D18/D23</f>
-        <v>4.7619047619047616E-2</v>
+        <f>D18/$D$21</f>
+        <v>0.21739130434782608</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -711,17 +720,19 @@
       <c r="A19" s="8">
         <v>2</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="10">
+        <v>41368</v>
+      </c>
       <c r="C19" s="8">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="D19" s="8">
         <f>D18+C19</f>
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="E19" s="9">
-        <f>D19/D23</f>
-        <v>0.14285714285714285</v>
+        <f>D19/$D$21</f>
+        <v>0.47826086956521741</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -732,17 +743,19 @@
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="10">
+        <v>41375</v>
+      </c>
       <c r="C20" s="8">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="D20" s="8">
         <f>D19+C20</f>
-        <v>6</v>
+        <v>420</v>
       </c>
       <c r="E20" s="9">
-        <f>D20/D23</f>
-        <v>0.2857142857142857</v>
+        <f>D20/$D$21</f>
+        <v>0.91304347826086951</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -753,17 +766,19 @@
       <c r="A21" s="8">
         <v>4</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="10">
+        <v>41382</v>
+      </c>
       <c r="C21" s="8">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D21" s="8">
         <f>D20+C21</f>
-        <v>10</v>
+        <v>460</v>
       </c>
       <c r="E21" s="9">
-        <f>D21/D23</f>
-        <v>0.47619047619047616</v>
+        <f>D21/$D$21</f>
+        <v>1</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -771,52 +786,10 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="7">
-        <v>5</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8">
-        <v>5</v>
-      </c>
-      <c r="D22" s="8">
-        <f>D21+C22</f>
-        <v>15</v>
-      </c>
-      <c r="E22" s="9">
-        <f>D22/D23</f>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="8">
-        <v>6</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8">
-        <v>6</v>
-      </c>
-      <c r="D23" s="8">
-        <f>D22+C23</f>
-        <v>21</v>
-      </c>
-      <c r="E23" s="9">
-        <f>D23/D23</f>
-        <v>1</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="A22" s="4"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/doc/Team SCHEDULE Form.xlsx
+++ b/doc/Team SCHEDULE Form.xlsx
@@ -517,7 +517,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -711,10 +711,18 @@
         <f>D18/$D$21</f>
         <v>0.21739130434782608</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="F18" s="8">
+        <v>100</v>
+      </c>
+      <c r="G18" s="8">
+        <v>100</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.21739130434782608</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="8">
@@ -734,10 +742,18 @@
         <f>D19/$D$21</f>
         <v>0.47826086956521741</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="F19" s="8">
+        <v>120</v>
+      </c>
+      <c r="G19" s="8">
+        <v>220</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0.47826086956521741</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="7">

--- a/doc/Team SCHEDULE Form.xlsx
+++ b/doc/Team SCHEDULE Form.xlsx
@@ -517,7 +517,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -715,9 +715,11 @@
         <v>100</v>
       </c>
       <c r="G18" s="8">
+        <f>F18</f>
         <v>100</v>
       </c>
       <c r="H18" s="9">
+        <f>F18/$D$21</f>
         <v>0.21739130434782608</v>
       </c>
       <c r="I18" s="9">
@@ -746,10 +748,12 @@
         <v>120</v>
       </c>
       <c r="G19" s="8">
+        <f>F19+G18</f>
         <v>220</v>
       </c>
       <c r="H19" s="9">
-        <v>0.26090000000000002</v>
+        <f>F19/$D$21</f>
+        <v>0.2608695652173913</v>
       </c>
       <c r="I19" s="9">
         <v>0.47826086956521741</v>
@@ -773,10 +777,21 @@
         <f>D20/$D$21</f>
         <v>0.91304347826086951</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="F20" s="8">
+        <v>200</v>
+      </c>
+      <c r="G20" s="8">
+        <f>F20+G19</f>
+        <v>420</v>
+      </c>
+      <c r="H20" s="9">
+        <f>F20/$D$21</f>
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="I20" s="9">
+        <f>I19+H20</f>
+        <v>0.91304347826086962</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="8">
@@ -820,6 +835,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="H20" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/doc/Team SCHEDULE Form.xlsx
+++ b/doc/Team SCHEDULE Form.xlsx
@@ -171,7 +171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -203,6 +203,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -517,7 +520,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -534,68 +537,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
       <c r="H7" t="s">
         <v>3</v>
       </c>
@@ -609,18 +612,18 @@
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="H9" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="13"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="3"/>
     </row>
     <row r="11" spans="1:16">
@@ -632,12 +635,12 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="3"/>
@@ -645,17 +648,17 @@
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:16" ht="27.75" customHeight="1">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -811,10 +814,18 @@
         <f>D21/$D$21</f>
         <v>1</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="F21" s="8">
+        <v>300</v>
+      </c>
+      <c r="G21" s="8">
+        <v>420</v>
+      </c>
+      <c r="H21" s="11">
+        <v>1</v>
+      </c>
+      <c r="I21" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4"/>
